--- a/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_44_.xlsx
+++ b/reports/_EMC_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_44_.xlsx
@@ -136,7 +136,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -172,7 +172,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -186,7 +186,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -434,7 +434,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -605,7 +605,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -879,7 +879,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1050,7 +1050,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1324,7 +1324,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1492,7 +1492,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1754,7 +1754,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>EMC</t>
         </is>
       </c>
     </row>
